--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value659.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value659.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.881205215504539</v>
+        <v>1.283484101295471</v>
       </c>
       <c r="B1">
-        <v>2.266115153962777</v>
+        <v>2.345788717269897</v>
       </c>
       <c r="C1">
-        <v>2.348385964799878</v>
+        <v>2.992778778076172</v>
       </c>
       <c r="D1">
-        <v>2.892191951337493</v>
+        <v>3.450932502746582</v>
       </c>
       <c r="E1">
-        <v>2.281321393320207</v>
+        <v>1.568946957588196</v>
       </c>
     </row>
   </sheetData>
